--- a/Files/Multi-Channal Data Record.xlsx
+++ b/Files/Multi-Channal Data Record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>标称值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,22 @@
   </si>
   <si>
     <t>10uH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用了新的校准方法校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.00V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10kHz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -669,6 +685,136 @@
       <c r="G9" s="1">
         <f t="shared" si="2"/>
         <v>7.3467876019422326E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>1.4615</v>
+      </c>
+      <c r="B14">
+        <v>1.4599</v>
+      </c>
+      <c r="C14">
+        <v>1.4588000000000001</v>
+      </c>
+      <c r="D14">
+        <f>(B14-A14)/B14*100</f>
+        <v>-0.10959654770875031</v>
+      </c>
+      <c r="E14">
+        <f>(C14-B14)/C14*100</f>
+        <v>-7.5404442007120834E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>8.5599999999999999E-3</v>
+      </c>
+      <c r="B15">
+        <v>9.0500000000000008E-3</v>
+      </c>
+      <c r="C15">
+        <v>9.2099999999999994E-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D21" si="3">(B15-A15)/B15*100</f>
+        <v>5.4143646408839867</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E21" si="4">(C15-B15)/C15*100</f>
+        <v>1.7372421281215928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1.43588</v>
+      </c>
+      <c r="B17">
+        <v>1.4326000000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.4317500000000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>-0.22895434873655934</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>-5.9367906408242875E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>8.5800000000000008E-3</v>
+      </c>
+      <c r="B18">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="C18">
+        <v>1.005E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>11.546391752577314</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>3.4825870646766131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>1.49394</v>
+      </c>
+      <c r="B20">
+        <v>1.4921500000000001</v>
+      </c>
+      <c r="C20">
+        <v>1.49068</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>-0.11996112991320969</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>-9.8612713660885129E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>9.0200000000000002E-3</v>
+      </c>
+      <c r="B21">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="C21">
+        <v>9.8499999999999994E-3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>6.0416666666666554</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>2.53807106598985</v>
       </c>
     </row>
   </sheetData>
